--- a/PortAllocation.xlsx
+++ b/PortAllocation.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
